--- a/_site/Data/FollowUpCore.xlsx
+++ b/_site/Data/FollowUpCore.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenkinnucan/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892AAD3F-A451-F84E-ADE7-DA29737ED4B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169B09DE-CA40-714B-AC80-711CF92D1B5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="460" windowWidth="28040" windowHeight="16400" xr2:uid="{0B01DEDA-7357-1341-9A4F-7788A83AE9E3}"/>
+    <workbookView xWindow="20" yWindow="480" windowWidth="28040" windowHeight="16400" xr2:uid="{0B01DEDA-7357-1341-9A4F-7788A83AE9E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="141">
   <si>
     <t>Question</t>
   </si>
@@ -96,13 +96,6 @@
   <si>
     <t>• Yes
 • No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How likely are you to get your child the first generation COVID-19 vaccine, as soon as it's available? </t>
-  </si>
-  <si>
-    <t>• Very likely
-• Somewhat likely                                                               • Not very likely                                                                     • Not at all likely</t>
   </si>
   <si>
     <t xml:space="preserve">Have you been suspected or diagnosed with coronavirus (COVID-19)? </t>
@@ -346,9 +339,6 @@
   <si>
     <t>The following questions ask about your and your child's (age 0-5) health and healthcare behaviors.
 Have you missed a well-baby/well-child check-up since the coronavirus (COVID-19) pandemic began?</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4957941/</t>
   </si>
   <si>
     <t>https://www.pewresearch.org/fact-tank/2020/05/26/few-u-s-adults-say-theyve-been-diagnosed-with-coronavirus-but-more-than-a-quarter-know-someone-who-has/</t>
@@ -622,6 +612,116 @@
       </rPr>
       <t>Too fearful or anxious…</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>Thinking about the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>past 12 months</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, did any of your family members go without health insurance at any time?</t>
+    </r>
+  </si>
+  <si>
+    <t>•Yes, someone in my family has been uninsured
+•No, no one in my family has been uninsured</t>
+  </si>
+  <si>
+    <t>Urban Institute HRMS Survey (March 2020)</t>
+  </si>
+  <si>
+    <t>•1 to 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many family members did not have health insurance at any time since September 2019?  </t>
+  </si>
+  <si>
+    <r>
+      <t>At any time in the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> last month</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, did you DELAY getting medical care (including physical or mental health visits)?</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www2.census.gov/programs-surveys/demo/technical-documentation/hhp/Phase_2_Questionnaire_09_09_2020_English.pdf</t>
+  </si>
+  <si>
+    <t>Household Pulse Survey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the past month, have you done any of the following:  
+Select all that apply. </t>
+  </si>
+  <si>
+    <t>• Worked at home while unwell or ill
+• Worked at a job outside the home while unwell or ill                                               • Used a holiday or time off to catch up on work                                                               •  None of the above
+• Not applicable</t>
+  </si>
+  <si>
+    <t>• Attended school or a learning environment at home while unwell or ill                                                                          • Attended school or a learning environment in person while unwell or ill                                                                     •  None of the above
+• Not applicable</t>
+  </si>
+  <si>
+    <t>RAPID Modified from two surveys to the right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://www.minddistrict.com/blog/the-impact-of-presenteeism-in-the-workplace
+https://www.cipd.co.uk/knowledge/culture/well-being/health-well-being-work                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+https://www.minddistrict.com/blog/the-impact-of-presenteeism-in-the-workplace
+https://www.cipd.co.uk/knowledge/culture/well-being/health-well-being-work                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the past month, has your child(ren) aged 0-5 done any of the following: Select all that apply. </t>
+  </si>
+  <si>
+    <t>Currently, is your family supporting other people who you did not provide support before COVID-19?</t>
+  </si>
+  <si>
+    <t>Are you supporting people outside your immediate family (partner and children) because of the COVID-19 pandemic? Select all that apply</t>
+  </si>
+  <si>
+    <t>• Your/your partners' parents
+• Your/your partners' siblings
+• Other relatives
+• Your/your partners' friends                                               • Neighbors
+• Other non-relative people
+• Not supporting anyone outside immediate family</t>
   </si>
 </sst>
 </file>
@@ -709,7 +809,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -761,6 +861,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1077,10 +1192,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088FF340-4B9C-0447-88E7-D996C5E44EAA}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:A40"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1092,9 +1207,9 @@
     <col min="6" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1106,27 +1221,27 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="6" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="6" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>5</v>
@@ -1139,24 +1254,24 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" s="6" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="6" customFormat="1" ht="119" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" s="6" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="6" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
@@ -1169,27 +1284,27 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" s="6" customFormat="1" ht="120" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" s="6" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>14</v>
@@ -1199,9 +1314,9 @@
       </c>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="153" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>15</v>
@@ -1214,9 +1329,9 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>18</v>
@@ -1229,587 +1344,679 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" s="6" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="10" t="s">
+    <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="136" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="204" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="204" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="6" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="17" t="s">
+      <c r="D15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" s="6" customFormat="1" ht="136" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" s="6" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" s="6" customFormat="1" ht="136" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="17" t="s">
+      <c r="B17" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="C17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="E17" s="14" t="s">
         <v>80</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="187" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="187" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="120" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" s="6" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:5" s="6" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="120" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="11" t="s">
+      <c r="E33" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="289" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="12"/>
+    </row>
+    <row r="36" spans="1:5" ht="272" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="12"/>
+    </row>
+    <row r="37" spans="1:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="289" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="12" t="s">
+      <c r="B37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="12"/>
-    </row>
-    <row r="30" spans="1:5" ht="272" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="12" t="s">
+    </row>
+    <row r="38" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="12"/>
-    </row>
-    <row r="31" spans="1:5" ht="85" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
+      <c r="D38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="3" t="s">
+      <c r="B39" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
+      <c r="D39" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
+      <c r="B40" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="136" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5" s="6" customFormat="1" ht="153" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="1:5" s="6" customFormat="1" ht="255" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E36" s="17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="100" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="67" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E39" s="5"/>
-    </row>
-    <row r="40" spans="1:5" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="5"/>
-    </row>
-    <row r="41" spans="1:5" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" s="6" customFormat="1" ht="153" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="1:5" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" s="6" customFormat="1" ht="255" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="100" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="67" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A45" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46" spans="1:5" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A46" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="1:5" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="5"/>
+    </row>
+    <row r="48" spans="1:5" s="6" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="1:5" s="6" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C49" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" spans="1:5" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E42" s="5"/>
-    </row>
-    <row r="43" spans="1:5" s="6" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E43" s="5"/>
-    </row>
-    <row r="44" spans="1:5" s="6" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="5"/>
+      <c r="E50" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E12" r:id="rId1" xr:uid="{23DBABC6-677D-1B48-BDAC-8C9F0CC59AAB}"/>
-    <hyperlink ref="E10" r:id="rId2" xr:uid="{8BD19562-815C-944A-AE20-39842181FA3A}"/>
-    <hyperlink ref="E14" r:id="rId3" xr:uid="{8C50C975-D3EC-064C-96E6-FF3C2E96EDE3}"/>
-    <hyperlink ref="E13" r:id="rId4" xr:uid="{A19C537D-EF64-8843-BD59-C4971D060C63}"/>
-    <hyperlink ref="E16" r:id="rId5" xr:uid="{2D5EEB05-1B0D-3A47-8DE5-E1ADA8939184}"/>
-    <hyperlink ref="E15" r:id="rId6" xr:uid="{1AD5EF00-E566-0746-96EA-F566F991A844}"/>
-    <hyperlink ref="E17" r:id="rId7" xr:uid="{1D9C5760-EFD6-CF48-9A74-5414C0E793C1}"/>
-    <hyperlink ref="E18" r:id="rId8" xr:uid="{20ECE06A-197F-5E45-A813-25EDD01F6814}"/>
-    <hyperlink ref="E19" r:id="rId9" xr:uid="{9388DED4-21A6-544E-A5AE-2A3D5EC943BC}"/>
-    <hyperlink ref="E22" r:id="rId10" xr:uid="{52710BD8-91B1-4741-AC85-718D6DD1260F}"/>
-    <hyperlink ref="E27" r:id="rId11" xr:uid="{886D22A1-9F90-EF40-84FE-3CBD143C1A41}"/>
-    <hyperlink ref="E28" r:id="rId12" display="https://www.umass.edu/lrrc/sites/default/files/Western%20Mass%20Essential%20Worker%20Survey%20-%20May%202020.pdf" xr:uid="{E2DA2EC5-F3EE-F34C-8A9C-E9BD041DC991}"/>
-    <hyperlink ref="E32" r:id="rId13" location="metadata_info_tab_contents " xr:uid="{56DEC821-CD08-3D4E-BC6D-1DBB3FE0A8A0}"/>
-    <hyperlink ref="E31" r:id="rId14" location="metadata_info_tab_contents " xr:uid="{BBE7D582-F890-BA4F-8721-E6ABB0518C8F}"/>
-    <hyperlink ref="E33" r:id="rId15" xr:uid="{D5E01905-3744-5E49-94DF-2B891188B362}"/>
-    <hyperlink ref="E36" r:id="rId16" xr:uid="{38CFB342-2CF3-9F46-8291-2F3AF6DB8E0A}"/>
-    <hyperlink ref="E38" r:id="rId17" xr:uid="{324F662B-78C8-9C4E-9ECF-22FB1E7DE7E3}"/>
-    <hyperlink ref="E37" r:id="rId18" xr:uid="{7982B9C2-6F66-DE46-868E-47DE526D6D9D}"/>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{23DBABC6-677D-1B48-BDAC-8C9F0CC59AAB}"/>
+    <hyperlink ref="E18" r:id="rId2" xr:uid="{8C50C975-D3EC-064C-96E6-FF3C2E96EDE3}"/>
+    <hyperlink ref="E17" r:id="rId3" xr:uid="{A19C537D-EF64-8843-BD59-C4971D060C63}"/>
+    <hyperlink ref="E20" r:id="rId4" xr:uid="{2D5EEB05-1B0D-3A47-8DE5-E1ADA8939184}"/>
+    <hyperlink ref="E19" r:id="rId5" xr:uid="{1AD5EF00-E566-0746-96EA-F566F991A844}"/>
+    <hyperlink ref="E21" r:id="rId6" xr:uid="{1D9C5760-EFD6-CF48-9A74-5414C0E793C1}"/>
+    <hyperlink ref="E22" r:id="rId7" xr:uid="{20ECE06A-197F-5E45-A813-25EDD01F6814}"/>
+    <hyperlink ref="E23" r:id="rId8" xr:uid="{9388DED4-21A6-544E-A5AE-2A3D5EC943BC}"/>
+    <hyperlink ref="E26" r:id="rId9" xr:uid="{52710BD8-91B1-4741-AC85-718D6DD1260F}"/>
+    <hyperlink ref="E33" r:id="rId10" xr:uid="{886D22A1-9F90-EF40-84FE-3CBD143C1A41}"/>
+    <hyperlink ref="E34" r:id="rId11" display="https://www.umass.edu/lrrc/sites/default/files/Western%20Mass%20Essential%20Worker%20Survey%20-%20May%202020.pdf" xr:uid="{E2DA2EC5-F3EE-F34C-8A9C-E9BD041DC991}"/>
+    <hyperlink ref="E38" r:id="rId12" location="metadata_info_tab_contents " xr:uid="{56DEC821-CD08-3D4E-BC6D-1DBB3FE0A8A0}"/>
+    <hyperlink ref="E37" r:id="rId13" location="metadata_info_tab_contents " xr:uid="{BBE7D582-F890-BA4F-8721-E6ABB0518C8F}"/>
+    <hyperlink ref="E39" r:id="rId14" xr:uid="{D5E01905-3744-5E49-94DF-2B891188B362}"/>
+    <hyperlink ref="E42" r:id="rId15" xr:uid="{38CFB342-2CF3-9F46-8291-2F3AF6DB8E0A}"/>
+    <hyperlink ref="E44" r:id="rId16" xr:uid="{324F662B-78C8-9C4E-9ECF-22FB1E7DE7E3}"/>
+    <hyperlink ref="E43" r:id="rId17" xr:uid="{7982B9C2-6F66-DE46-868E-47DE526D6D9D}"/>
+    <hyperlink ref="E12" r:id="rId18" xr:uid="{0E0C24D8-CF57-E947-874E-77BA3B72D967}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/_site/Data/FollowUpCore.xlsx
+++ b/_site/Data/FollowUpCore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2A164B-EDBF-5A4C-B604-078C4C94787E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5B8DCD0-988D-D746-AFBB-61A3331781A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49100" yWindow="-3500" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="16020" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="140">
   <si>
     <t>Domain</t>
   </si>
@@ -941,6 +941,38 @@
   </si>
   <si>
     <t>What would you like your employer or all employers to know about what families need during this next phase of the COVID-19 pandemic and recovery period?</t>
+  </si>
+  <si>
+    <t>What is your race or origin?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demographics	What is your race or origin?	"▢ White (e.g., German, Irish, English, Italian) 
+▢ Hispanic, Latinx, or Spanish origin (e.g., Mexican/Mexican American, Puerto Rican, Cuban, Dominican, Salvadoran, Colombian)  
+▢ Black or African American (e.g., African American, Jamaican, Haitian, Nigerian, Ethiopian, Somalian)  
+▢ Asian (e.g., Chinese, Filipino, Asian Indian, Vietnamese, Korean, Japanese)  
+▢ American Indian or Alaska Native (e.g., Navajo Nation, Blackfeet Tribe, Muscogee (Creek) Nation, Mayan, Doyon, Native Village of Barrow Inupiat Traditional Government)
+▢ Native Hawaiian or Other Pacific Islander (e.g., Native Hawaiian, Samoan, Guamanian or Chamorro, Tongan, Fijian, Marshallese)  
+▢ Middle Eastern or North African (e.g., Lebanese, Egyptian)  
+▢ Some Other Race or Origin  			</t>
+  </si>
+  <si>
+    <t xml:space="preserve">▢ White (e.g., German, Irish, English, Italian) 
+▢ Hispanic, Latinx, or Spanish origin (e.g., Mexican/Mexican American, Puerto Rican, Cuban, Dominican, Salvadoran, Colombian)  
+▢ Black or African American (e.g., African American, Jamaican, Haitian, Nigerian, Ethiopian, Somalian)  
+▢ Asian (e.g., Chinese, Filipino, Asian Indian, Vietnamese, Korean, Japanese)  
+▢ American Indian or Alaska Native (e.g., Navajo Nation, Blackfeet Tribe, Muscogee (Creek) Nation, Mayan, Doyon, Native Village of Barrow Inupiat Traditional Government)
+▢ Native Hawaiian or Other Pacific Islander (e.g., Native Hawaiian, Samoan, Guamanian or Chamorro, Tongan, Fijian, Marshallese)  
+▢ Middle Eastern or North African (e.g., Lebanese, Egyptian)  
+▢ Some Other Race or Origin  			</t>
+  </si>
+  <si>
+    <t>Childcare / Policy</t>
+  </si>
+  <si>
+    <t>For how long was your childcare canceled/ clsed?</t>
+  </si>
+  <si>
+    <t>0.5 day (1) thru More than 1 week (9)</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1078,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1105,6 +1137,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2266,10 +2304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2279,10 +2317,12 @@
     <col min="3" max="3" width="46.5" style="1" customWidth="1"/>
     <col min="4" max="5" width="19.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="45.83203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2299,7 +2339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="323" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>122</v>
       </c>
@@ -2313,255 +2353,250 @@
         <v>12</v>
       </c>
       <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H2" s="21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="306" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>124</v>
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
+    <row r="7" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>126</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>20</v>
+    <row r="10" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>20</v>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="119" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>120</v>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="136" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>30</v>
+      <c r="B14" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" ht="187" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="187" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
@@ -2569,16 +2604,16 @@
         <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
@@ -2586,135 +2621,139 @@
         <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>48</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>48</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="119" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>64</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>66</v>
@@ -2728,8 +2767,8 @@
       <c r="A29" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>119</v>
+      <c r="B29" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>68</v>
@@ -2739,349 +2778,349 @@
       </c>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>67</v>
+      <c r="B30" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" ht="272" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>127</v>
+      <c r="B31" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>64</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="289" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:5" ht="272" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="289" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D35" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="A34" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" s="12"/>
-    </row>
-    <row r="35" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="12"/>
-    </row>
-    <row r="36" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="80" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
         <v>64</v>
       </c>
       <c r="B36" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="12"/>
+    </row>
+    <row r="37" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="12"/>
+    </row>
+    <row r="38" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D38" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="12"/>
-    </row>
-    <row r="37" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
+      <c r="E38" s="12"/>
+    </row>
+    <row r="39" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="255" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
+    <row r="40" spans="1:5" ht="255" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
+    <row r="41" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="136" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
+    <row r="42" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="5"/>
-    </row>
-    <row r="41" spans="1:5" ht="153" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="5"/>
-    </row>
-    <row r="42" spans="1:5" ht="255" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="1:5" ht="255" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
+    <row r="45" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="8" t="s">
+    <row r="46" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="19" t="s">
+    <row r="47" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B47" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C47" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D47" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E45" s="20"/>
-    </row>
-    <row r="46" spans="1:5" ht="112" x14ac:dyDescent="0.2">
-      <c r="A46" s="19" t="s">
+      <c r="E47" s="20"/>
+    </row>
+    <row r="48" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="A48" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B48" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C48" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D48" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E46" s="20"/>
-    </row>
-    <row r="47" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="8" t="s">
+      <c r="E48" s="20"/>
+    </row>
+    <row r="49" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="5"/>
-    </row>
-    <row r="48" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" s="5"/>
-    </row>
-    <row r="49" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B50" s="13" t="s">
-        <v>133</v>
+      <c r="B50" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E50" s="5"/>
     </row>
-    <row r="51" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>111</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>114</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="E51" s="5"/>
     </row>
@@ -3089,36 +3128,66 @@
       <c r="A52" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>117</v>
+      <c r="B52" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E52" s="5"/>
     </row>
+    <row r="53" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A53" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E53" s="5"/>
+    </row>
+    <row r="54" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A54" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="5"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E16" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E17" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E18" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E19" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E20" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E21" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E22" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E25" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E32" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E33" r:id="rId11" display="https://www.umass.edu/lrrc/sites/default/files/Western%20Mass%20Essential%20Worker%20Survey%20-%20May%202020.pdf Guidance on the Essential Critical Infrastructure Workforce. (2020, March 19). Retrieved April 30, 2020, from https://www.cisa.gov/publication/guidance-essential-critical-infrastructure-workforce" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="E37" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E38" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="E39" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E42" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="E43" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="E44" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E13" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E18" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E19" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E20" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E21" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E22" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E23" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E24" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E27" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E34" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E35" r:id="rId11" display="https://www.umass.edu/lrrc/sites/default/files/Western%20Mass%20Essential%20Worker%20Survey%20-%20May%202020.pdf Guidance on the Essential Critical Infrastructure Workforce. (2020, March 19). Retrieved April 30, 2020, from https://www.cisa.gov/publication/guidance-essential-critical-infrastructure-workforce" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E39" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E40" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E41" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E44" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E45" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E46" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/_site/Data/FollowUpCore.xlsx
+++ b/_site/Data/FollowUpCore.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5B8DCD0-988D-D746-AFBB-61A3331781A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F001AE2F-9E85-C64B-BC2A-FF3915F5EA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="16020" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="149">
   <si>
     <t>Domain</t>
   </si>
@@ -50,10 +50,6 @@
   </si>
   <si>
     <t xml:space="preserve">RAPID Team modified from the National Survey of Early Care and Education (NSECE) </t>
-  </si>
-  <si>
-    <t>[Display this question if "When thinking about the people/center that provides your childcare right now, what role, significant contribution or niche do they serve for you and your family?" =/ None of the above]
-When thinking about the people/center that provides your childcare right now, what role, significant contribution or niche do they serve for you and your family?</t>
   </si>
   <si>
     <t>Open Response</t>
@@ -95,15 +91,6 @@
   </si>
   <si>
     <t xml:space="preserve">COVID-19  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Have you been suspected or diagnosed with coronavirus (COVID-19)? </t>
-  </si>
-  <si>
-    <t>• Yes, suspected
-• Yes, diagnosed with a positive test result
-• Yes, diagnosed by a healthcare professional or public health official without a test
-• No</t>
   </si>
   <si>
     <t xml:space="preserve">Do you personally know anyone in the U.S. who…                                                  • Has been officially diagnosed as having COVID-19 by a health care provider                                                                                                       • Has been hospitalized or died as a result of having COVID-19 </t>
@@ -361,86 +348,6 @@
     <t xml:space="preserve">Income and Employment  </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">To the best of your knowledge, which option best describes your </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>gross</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (before taxes) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>household income</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> from all sources,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> currently? 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">You may respond with your household income weekly, monthly, or yearly, whatever is easiest for you. Please do not include any dollar signs or commas in your response. You only need to fill out one of these. </t>
-    </r>
-  </si>
-  <si>
     <t>• Weekly [Free Text]
 • Or Monthly [Free Text]
 • Or Yearly [Free Text]</t>
@@ -525,19 +432,6 @@
 What types of benefits are you receiving?</t>
   </si>
   <si>
-    <t xml:space="preserve"> • Health or Medical Services (ex. Vaccine programs, counseling, STD testing etc.)
-• Childcare Subsidy
-• Housing            
-• Income (i.e. TANF)                                                                                               • Unemployment benefit/insurance, INCLUDING the $600 weekly bonus from the CARES ACT                                                                • Unemployment (not including the $600 weekly bonus from CARES ACT)          
-• Disability (not military)
-• Military Benefits (ex. Disability, pension, veterans medical care)
-• Food
-• Transportation
-• Training
-• Clothing
-• Other, please describe [Free Text]</t>
-  </si>
-  <si>
     <t>EHQ (Policy)</t>
   </si>
   <si>
@@ -666,49 +560,6 @@
   </si>
   <si>
     <t>Child Behavior Problems</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Please fill out this form to reflect your view of the child's (within the 0-5 age range) behavior even if other people might not agree. Below is a list of items that describe children. Please select the answer which best fits </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">your child's behavior in the last week.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Fussy or defiant...</t>
-    </r>
   </si>
   <si>
     <t>• Not True
@@ -890,15 +741,6 @@
     <t>Demographics</t>
   </si>
   <si>
-    <t xml:space="preserve">[Display if: Any type of paid or unpaid center-based care, such as a pre-school, day care center, public pre-kindergarten, Head Start, or faith-based nursery school selected]
-Have you had any difficulty finding space in a home- or center-based child care program?  </t>
-  </si>
-  <si>
-    <t>• Yes
-• No
-• NA I did not need a spot in a childcare program</t>
-  </si>
-  <si>
     <t>[Display if: Yes to Have you had any difficulty finding space in a home- or center-based child care program?]
 To your knowledge, did staffing shortages at the home- or center-based program in which your child is enrolled cause disruptions to your child care (examples: temporarily closed classrooms, reduced hours)?</t>
   </si>
@@ -915,17 +757,6 @@
 • Temporarily out of work or furloughed
 • Other [text entry]
 • Not applicable</t>
-  </si>
-  <si>
-    <t>Has the pandemic affected how stable your financial situation is and, if so, please tell us in what ways it has changed?</t>
-  </si>
-  <si>
-    <t>Do you have more children that are between 0 and 5 years old?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">•  Yes
-•  No
-</t>
   </si>
   <si>
     <t>What is YOUR relationship to this child (your oldest in 0-5 age range)?</t>
@@ -966,20 +797,127 @@
 ▢ Some Other Race or Origin  			</t>
   </si>
   <si>
-    <t>Childcare / Policy</t>
-  </si>
-  <si>
-    <t>For how long was your childcare canceled/ clsed?</t>
-  </si>
-  <si>
-    <t>0.5 day (1) thru More than 1 week (9)</t>
+    <t xml:space="preserve">Are you currently enrolled in any of the following? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">o	GED program  
+o	Undergraduate or post-secondary degree program 
+o	Graduate degree program (Master's, doctorate)  
+o	Non-degree credentialing program  
+o	Not Listed (please specify)   
+o	Not Applicable  </t>
+  </si>
+  <si>
+    <t>Are you currently looking for childcare, either additional/other childcare than your current situation or because you do not currently have childcare?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o Yes  
+o No  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have you had any difficulty finding space in a home- or center-based child care program in the past 6 months?  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">o Yes  
+o No  
+o Not applicable, I did not need a spot in a child care program  </t>
+  </si>
+  <si>
+    <t>Have you had any difficulty finding other types of child care (e.g., sitter, nanny) in the past 6 months?</t>
+  </si>
+  <si>
+    <t>Has this difficulty finding care impacted your ability to work?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o Yes  
+o No  
+o Not applicable, I do not work </t>
+  </si>
+  <si>
+    <t>COVID-19 (Parent health/Well-being)</t>
+  </si>
+  <si>
+    <t>Have you thought you had or have you been diagnosed with coronavirus (COVID-19)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• I thought I had it but did not get a test
+• I tested positive or was otherwise diagnosed
+• No
+</t>
+  </si>
+  <si>
+    <t>Was your child(ren) close to the person/people who has/have been hospitalized or died as a result of having COVID-19?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o Yes 
+o No  </t>
+  </si>
+  <si>
+    <t>What was your child(ren)'s relationship to the person/people who has/have been hospitalized or died as a result of having COVID-19? Select all that apply.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">▢ Parent or primary caregiver
+▢ Grandparent  
+▢ Extended family 
+▢ Close friend of the family 
+▢ Acquaintance (e.g., friend from school, extracurricular, etc.) 
+▢ Not Listed (please specify)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To the best of your knowledge, what is your current total household income before taxes and deductions, from all sources*?
+*Sources of income can include wages, salary, commissions, bonuses, or tips from all jobs, self-employment income, Social Security, Supplemental Security Income (SSI), any public assistance or welfare payments, retirement income, disability income, or any other sources of income received regularly, such as Veterans' (VA) payments, unemployment compensation, child support, or alimony.
+You may respond with your household income weekly, monthly, or yearly, whatever is easiest for you. Please do not include any dollar signs or commas in your response. You only need to fill out one of these. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> • Health or Medical Services (ex. Vaccine programs, counseling, STD testing etc.)
+• Childcare Subsidy
+• Housing            
+• Income                                                                                              • • Unemployment benefit/insurance                                                               
+• Disability (not military)
+• Military Benefits (ex. Disability, pension, veterans medical care)
+• Food (ex. SNAP, also known as food stamps, WIC)  
+• Transportation
+• Training
+• Clothing
+• Other, please describe [Free Text]</t>
+  </si>
+  <si>
+    <t>Has the pandemic affected your financial situation? If so, please tell us in what ways it has changed.</t>
+  </si>
+  <si>
+    <t>How many children do you have between the ages of 0-5 years?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 child - More than 5 children
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Asked for every child]
+Please fill out this form to reflect your view of the child's (within the 0-5 age range) behavior even if other people might not agree. Below is a list of items that describe children. Please select the answer which best fits </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>your child's behavior in the last week.
+Fussy or defiant...
+For the next set of questions, please think about your (second, third, etc.) child (from the oldest to the youngest in the 0-5 age range).</t>
+    </r>
+  </si>
+  <si>
+    <t>Is there anything else you would like to share or add?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1036,8 +974,20 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1050,8 +1000,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1074,18 +1030,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFAAAAAA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFAAAAAA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1141,8 +1157,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2304,16 +2346,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="56.6640625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="56.6640625" style="13" customWidth="1"/>
     <col min="3" max="3" width="46.5" style="1" customWidth="1"/>
     <col min="4" max="5" width="19.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="1" customWidth="1"/>
@@ -2323,7 +2365,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2340,854 +2382,909 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="323" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>70</v>
+      <c r="A2" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="H2" s="21" t="s">
-        <v>135</v>
+      <c r="H2" s="20" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="306" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>136</v>
+      <c r="A3" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>125</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:8" s="22" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="27"/>
+    </row>
+    <row r="8" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="27"/>
+    </row>
+    <row r="9" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="27"/>
+    </row>
+    <row r="10" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" s="22" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="1:8" ht="136" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" ht="187" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" ht="136" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="119" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:8" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" ht="187" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
+      <c r="D31" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="2" t="s">
+    </row>
+    <row r="32" spans="1:5" ht="236" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="B32" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="119" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:5" ht="119" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="1:5" ht="272" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>127</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" ht="119" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="D35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" ht="272" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="289" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D39" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E34" s="2" t="s">
+    </row>
+    <row r="40" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A40" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="10" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="289" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D40" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="11"/>
+    </row>
+    <row r="41" spans="1:5" ht="290" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E35" s="2" t="s">
+      <c r="C41" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="11"/>
+    </row>
+    <row r="42" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="11"/>
+    </row>
+    <row r="43" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="80" x14ac:dyDescent="0.2">
-      <c r="A36" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B36" s="11" t="s">
+      <c r="B43" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C43" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D36" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" s="12"/>
-    </row>
-    <row r="37" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" s="11" t="s">
+      <c r="D43" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="E43" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D37" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="12"/>
-    </row>
-    <row r="38" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C38" s="2" t="s">
+    </row>
+    <row r="44" spans="1:5" ht="255" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="12"/>
-    </row>
-    <row r="39" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="255" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="136" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B42" s="2" t="s">
+      <c r="D47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="1:5" ht="255" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="5"/>
-    </row>
-    <row r="43" spans="1:5" ht="153" x14ac:dyDescent="0.2">
-      <c r="A43" s="8" t="s">
+      <c r="D48" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="2" t="s">
+    </row>
+    <row r="49" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="5"/>
-    </row>
-    <row r="44" spans="1:5" ht="255" x14ac:dyDescent="0.2">
-      <c r="A44" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B44" s="2" t="s">
+      <c r="B49" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="19"/>
+    </row>
+    <row r="50" spans="1:5" ht="226" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E44" s="2" t="s">
+    </row>
+    <row r="51" spans="1:5" ht="104" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
+      <c r="C51" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="A52" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="19"/>
+    </row>
+    <row r="53" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="C54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A55" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B46" s="2" t="s">
+      <c r="D55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A56" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A57" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E46" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="D47" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="20"/>
-    </row>
-    <row r="48" spans="1:5" ht="112" x14ac:dyDescent="0.2">
-      <c r="A48" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" s="20"/>
-    </row>
-    <row r="49" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B49" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="5"/>
-    </row>
-    <row r="50" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="8" t="s">
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C50" s="2" t="s">
+      <c r="C58" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="5"/>
-    </row>
-    <row r="51" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A51" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="5"/>
-    </row>
-    <row r="52" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A52" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="5"/>
-    </row>
-    <row r="53" spans="1:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="A53" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E53" s="5"/>
-    </row>
-    <row r="54" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A54" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" s="5"/>
+      <c r="E58" s="4"/>
+    </row>
+    <row r="59" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B59" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="C59" s="31" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E13" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E18" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E19" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E20" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E21" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E22" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E23" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E24" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E27" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E34" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E35" r:id="rId11" display="https://www.umass.edu/lrrc/sites/default/files/Western%20Mass%20Essential%20Worker%20Survey%20-%20May%202020.pdf Guidance on the Essential Critical Infrastructure Workforce. (2020, March 19). Retrieved April 30, 2020, from https://www.cisa.gov/publication/guidance-essential-critical-infrastructure-workforce" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="E39" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E40" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="E41" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E44" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="E45" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="E46" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E15" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E22" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E23" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E24" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E25" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E26" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E27" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E28" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E31" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E38" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E39" r:id="rId11" display="https://www.umass.edu/lrrc/sites/default/files/Western%20Mass%20Essential%20Worker%20Survey%20-%20May%202020.pdf Guidance on the Essential Critical Infrastructure Workforce. (2020, March 19). Retrieved April 30, 2020, from https://www.cisa.gov/publication/guidance-essential-critical-infrastructure-workforce" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E43" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E44" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E45" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E48" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E50" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E51" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/_site/Data/FollowUpCore.xlsx
+++ b/_site/Data/FollowUpCore.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F001AE2F-9E85-C64B-BC2A-FF3915F5EA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99D7D215-E8D0-9244-B7CA-FDFC59DB6054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="16020" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="155">
   <si>
     <t>Domain</t>
   </si>
@@ -422,12 +422,6 @@
 (Ex. Federal cash assistance programs such as the Temporary Assistance for Needy Families (TANF), Social Security Income (SSI), OR, Federal-in kind benefit programs such as Medicaid, Food Stamps and Housing.)</t>
   </si>
   <si>
-    <t>• Yes
-• No
-• Didn't Qualify
-• Intend to Apply</t>
-  </si>
-  <si>
     <t>[If receiving benefits]
 What types of benefits are you receiving?</t>
   </si>
@@ -526,21 +520,6 @@
 •  Internet
 •  Other, please describe:[Free text]
 •  None of the above</t>
-  </si>
-  <si>
-    <t>What methods are you using or do you plan to use to cover your expenses? Select all that apply</t>
-  </si>
-  <si>
-    <t>•  By putting it on my credit card and paying it off in full at the next statement
-•  By putting it on my credit card and paying it off over time
-•  With the money currently in my checking/savings account or with cash
-•  Using a bank loan or line of credit
-•  By borrowing froma friend or family member
-•  Using a payday loan, deposit advance, or overdraft
-•  By selling something
-•  By using my stimulus payment
-•  By asking my landlord or mortgage provider for an extension                                                                                •  I wouldn't be able to pay for the expense right now
-•  Other</t>
   </si>
   <si>
     <t xml:space="preserve">ALP survey conducted May 1-6, 2020 
@@ -751,14 +730,6 @@
 • No disruptions</t>
   </si>
   <si>
-    <t>• Working
-• Stay at home parent (not seeking employment)
-• Unemployed or laid off
-• Temporarily out of work or furloughed
-• Other [text entry]
-• Not applicable</t>
-  </si>
-  <si>
     <t>What is YOUR relationship to this child (your oldest in 0-5 age range)?</t>
   </si>
   <si>
@@ -862,11 +833,6 @@
 ▢ Close friend of the family 
 ▢ Acquaintance (e.g., friend from school, extracurricular, etc.) 
 ▢ Not Listed (please specify)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">To the best of your knowledge, what is your current total household income before taxes and deductions, from all sources*?
-*Sources of income can include wages, salary, commissions, bonuses, or tips from all jobs, self-employment income, Social Security, Supplemental Security Income (SSI), any public assistance or welfare payments, retirement income, disability income, or any other sources of income received regularly, such as Veterans' (VA) payments, unemployment compensation, child support, or alimony.
-You may respond with your household income weekly, monthly, or yearly, whatever is easiest for you. Please do not include any dollar signs or commas in your response. You only need to fill out one of these. </t>
   </si>
   <si>
     <t xml:space="preserve"> • Health or Medical Services (ex. Vaccine programs, counseling, STD testing etc.)
@@ -911,6 +877,61 @@
   </si>
   <si>
     <t>Is there anything else you would like to share or add?</t>
+  </si>
+  <si>
+    <t>For the most recent cancellation/closure, for how long was your child care canceled/closed?</t>
+  </si>
+  <si>
+    <t>Open Respponse</t>
+  </si>
+  <si>
+    <t>To the best of your knowledge, what is your current total household income before taxes and deductions, from all sources*?
+*Sources of income can include wages, salary, commissions, bonuses, or tips from all jobs, self-employment income, Social Security, Supplemental Security Income (SSI), any public assistance or welfare payments, retirement income, disability income, or any other sources of income received regularly, such as Veterans' (VA) payments, unemployment compensation, child support, or alimony.
+You may respond with your household income weekly, monthly, or yearly, whatever is easiest for you. Please do not include any dollar signs or commas in your response. You only need to fill out one of these.</t>
+  </si>
+  <si>
+    <t>• Working (either full or part-time)
+• Stay at home parent (not seeking employment)
+• Unemployed or laid off
+• Temporarily out of work or furloughed
+• Student (either working or not working)
+• Other [text entry]
+• Not applicable</t>
+  </si>
+  <si>
+    <t>• Yes
+• No
+• Didn't Qualify
+• Intend to Apply
+• Applied and waiting for a decision</t>
+  </si>
+  <si>
+    <t>Have costs for everyday items gone up in your area in the past month?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o	Yes  (1) 
+o	No  (0) 
+o	Unsure  (2) </t>
+  </si>
+  <si>
+    <t>Which of the following items have become more expensive? Select all that apply.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">▢	Food  
+▢	Housing 
+▢	Utilities 
+▢	Health care (e.g., medication)  
+▢	Child care 
+▢	Gas  
+▢	Baby items (e.g., formula, diapers)  
+▢	Household items  
+▢	Not Listed (please specify)  </t>
+  </si>
+  <si>
+    <t>Has this affected your ability to buy these items?</t>
+  </si>
+  <si>
+    <t>How has the increased costs of everyday items affected the decisions you make for your household?</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1185,6 +1206,10 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2346,10 +2371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2383,10 +2408,10 @@
     </row>
     <row r="2" spans="1:8" ht="323" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>66</v>
@@ -2396,31 +2421,31 @@
       </c>
       <c r="E2" s="2"/>
       <c r="H2" s="20" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="306" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:8" s="22" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="19"/>
@@ -2445,10 +2470,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="24"/>
@@ -2458,10 +2483,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="27"/>
@@ -2471,10 +2496,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="27"/>
@@ -2484,10 +2509,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="27"/>
@@ -2497,10 +2522,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>11</v>
@@ -2554,13 +2579,13 @@
     </row>
     <row r="14" spans="1:8" s="22" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>11</v>
@@ -2589,7 +2614,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>24</v>
@@ -2618,10 +2643,10 @@
     </row>
     <row r="18" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -2629,10 +2654,10 @@
     </row>
     <row r="19" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -2839,7 +2864,7 @@
         <v>61</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>62</v>
@@ -2869,7 +2894,7 @@
         <v>61</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>62</v>
@@ -2884,7 +2909,7 @@
         <v>61</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>64</v>
@@ -2917,7 +2942,7 @@
         <v>67</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>5</v>
@@ -2966,7 +2991,7 @@
         <v>75</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>22</v>
@@ -2978,10 +3003,10 @@
         <v>61</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>11</v>
@@ -2993,7 +3018,7 @@
         <v>61</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>10</v>
@@ -3005,64 +3030,64 @@
     </row>
     <row r="43" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="255" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="D44" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="136" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>11</v>
@@ -3071,199 +3096,246 @@
     </row>
     <row r="47" spans="1:5" ht="153" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="1:5" ht="255" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B48" s="2" t="s">
+    <row r="48" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A48" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+      <c r="A49" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A50" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C48" s="2" t="s">
+    </row>
+    <row r="52" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="19"/>
-    </row>
-    <row r="50" spans="1:5" ht="226" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="104" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="112" x14ac:dyDescent="0.2">
-      <c r="A52" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>121</v>
+      <c r="B52" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>141</v>
       </c>
       <c r="D52" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E52" s="19"/>
     </row>
-    <row r="53" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="226" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C53" s="2" t="s">
+    </row>
+    <row r="54" spans="1:5" ht="104" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="A55" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="19"/>
+    </row>
+    <row r="56" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="4"/>
-    </row>
-    <row r="54" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="4"/>
-    </row>
-    <row r="55" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="4"/>
-    </row>
-    <row r="56" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A56" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E56" s="4"/>
     </row>
-    <row r="57" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E57" s="4"/>
-    </row>
-    <row r="58" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A58" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E58" s="4"/>
     </row>
-    <row r="59" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="29" t="s">
+    <row r="59" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A59" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B59" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="C59" s="31" t="s">
+      <c r="D59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="4"/>
+    </row>
+    <row r="60" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="A60" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A61" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="4"/>
+    </row>
+    <row r="62" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B62" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="C62" s="31" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C63" s="31" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3282,9 +3354,9 @@
     <hyperlink ref="E43" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="E44" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="E45" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E48" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="E50" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="E51" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E51" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E53" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E54" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/_site/Data/FollowUpCore.xlsx
+++ b/_site/Data/FollowUpCore.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgzRbOErWcgF1dtonn6TbizIRVKrw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjm9u8NpogZtFcUlm6ZrE4hGnHUTw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="158">
   <si>
     <t>Domain</t>
   </si>
@@ -44,16 +44,6 @@
   </si>
   <si>
     <t>Developed by RAPID Team</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demographics	What is your race or origin?	"▢ White (e.g., German, Irish, English, Italian) 
-▢ Hispanic, Latinx, or Spanish origin (e.g., Mexican/Mexican American, Puerto Rican, Cuban, Dominican, Salvadoran, Colombian)  
-▢ Black or African American (e.g., African American, Jamaican, Haitian, Nigerian, Ethiopian, Somalian)  
-▢ Asian (e.g., Chinese, Filipino, Asian Indian, Vietnamese, Korean, Japanese)  
-▢ American Indian or Alaska Native (e.g., Navajo Nation, Blackfeet Tribe, Muscogee (Creek) Nation, Mayan, Doyon, Native Village of Barrow Inupiat Traditional Government)
-▢ Native Hawaiian or Other Pacific Islander (e.g., Native Hawaiian, Samoan, Guamanian or Chamorro, Tongan, Fijian, Marshallese)  
-▢ Middle Eastern or North African (e.g., Lebanese, Egyptian)  
-▢ Some Other Race or Origin  			</t>
   </si>
   <si>
     <t>What is your race or origin?</t>
@@ -1467,9 +1457,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="H2" s="4"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -1494,10 +1482,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1528,10 +1516,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
@@ -1559,16 +1547,16 @@
     </row>
     <row r="5" ht="153.0" customHeight="1">
       <c r="A5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="3"/>
@@ -1595,13 +1583,13 @@
     </row>
     <row r="6" ht="153.0" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="12"/>
@@ -1629,13 +1617,13 @@
     </row>
     <row r="7" ht="120.0" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="16"/>
@@ -1663,13 +1651,13 @@
     </row>
     <row r="8" ht="120.0" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="16"/>
@@ -1697,13 +1685,13 @@
     </row>
     <row r="9" ht="120.0" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="16"/>
@@ -1731,13 +1719,13 @@
     </row>
     <row r="10" ht="120.0" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>8</v>
@@ -1767,13 +1755,13 @@
     </row>
     <row r="11" ht="84.75" customHeight="1">
       <c r="A11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>8</v>
@@ -1803,13 +1791,13 @@
     </row>
     <row r="12" ht="153.0" customHeight="1">
       <c r="A12" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>8</v>
@@ -1839,13 +1827,13 @@
     </row>
     <row r="13" ht="33.75" customHeight="1">
       <c r="A13" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>8</v>
@@ -1875,13 +1863,13 @@
     </row>
     <row r="14" ht="96.0" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>8</v>
@@ -1911,19 +1899,19 @@
     </row>
     <row r="15" ht="135.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1949,19 +1937,19 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1987,13 +1975,13 @@
     </row>
     <row r="17" ht="84.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>8</v>
@@ -2024,10 +2012,10 @@
     <row r="18" ht="84.75" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="9"/>
@@ -2056,10 +2044,10 @@
     <row r="19" ht="84.75" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="9"/>
@@ -2087,16 +2075,16 @@
     </row>
     <row r="20" ht="84.75" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="3"/>
@@ -2123,16 +2111,16 @@
     </row>
     <row r="21" ht="67.5" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="3"/>
@@ -2159,19 +2147,19 @@
     </row>
     <row r="22" ht="186.75" customHeight="1">
       <c r="A22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="21" t="s">
         <v>57</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>58</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -2197,19 +2185,19 @@
     </row>
     <row r="23" ht="84.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="E23" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -2235,19 +2223,19 @@
     </row>
     <row r="24" ht="84.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="21" t="s">
         <v>62</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>63</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -2273,19 +2261,19 @@
     </row>
     <row r="25" ht="84.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -2311,19 +2299,19 @@
     </row>
     <row r="26" ht="84.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="21" t="s">
         <v>68</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>69</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -2349,19 +2337,19 @@
     </row>
     <row r="27" ht="84.75" customHeight="1">
       <c r="A27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="21" t="s">
         <v>73</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>74</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -2387,19 +2375,19 @@
     </row>
     <row r="28" ht="120.0" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="21" t="s">
         <v>76</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>77</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -2425,13 +2413,13 @@
     </row>
     <row r="29" ht="33.75" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>8</v>
@@ -2461,13 +2449,13 @@
     </row>
     <row r="30" ht="33.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>8</v>
@@ -2497,19 +2485,19 @@
     </row>
     <row r="31" ht="33.75" customHeight="1">
       <c r="A31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="21" t="s">
         <v>85</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>86</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -2535,16 +2523,16 @@
     </row>
     <row r="32" ht="235.5" customHeight="1">
       <c r="A32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="C32" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="3"/>
@@ -2571,16 +2559,16 @@
     </row>
     <row r="33" ht="102.0" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="D33" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="3"/>
@@ -2607,16 +2595,16 @@
     </row>
     <row r="34" ht="118.5" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="3"/>
@@ -2643,16 +2631,16 @@
     </row>
     <row r="35" ht="102.0" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="3"/>
@@ -2679,16 +2667,16 @@
     </row>
     <row r="36" ht="67.5" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="3"/>
@@ -2715,16 +2703,16 @@
     </row>
     <row r="37" ht="271.5" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>97</v>
-      </c>
       <c r="D37" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="3"/>
@@ -2751,19 +2739,19 @@
     </row>
     <row r="38" ht="84.75" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="E38" s="21" t="s">
         <v>100</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>101</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -2789,19 +2777,19 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B39" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="D39" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -2827,16 +2815,16 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B40" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>106</v>
-      </c>
       <c r="D40" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E40" s="22"/>
       <c r="F40" s="3"/>
@@ -2863,13 +2851,13 @@
     </row>
     <row r="41" ht="289.5" customHeight="1">
       <c r="A41" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>8</v>
@@ -2899,13 +2887,13 @@
     </row>
     <row r="42" ht="135.75" customHeight="1">
       <c r="A42" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>8</v>
@@ -2935,19 +2923,19 @@
     </row>
     <row r="43" ht="153.0" customHeight="1">
       <c r="A43" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="21" t="s">
         <v>113</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>114</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -2973,19 +2961,19 @@
     </row>
     <row r="44" ht="255.0" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="D44" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -3011,19 +2999,19 @@
     </row>
     <row r="45" ht="99.75" customHeight="1">
       <c r="A45" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="D45" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="21" t="s">
         <v>121</v>
-      </c>
-      <c r="E45" s="21" t="s">
-        <v>122</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -3049,13 +3037,13 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>8</v>
@@ -3085,13 +3073,13 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C47" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>127</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>8</v>
@@ -3121,13 +3109,13 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="9"/>
@@ -3155,13 +3143,13 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="9"/>
@@ -3189,10 +3177,10 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>7</v>
@@ -3223,19 +3211,19 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B51" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D51" s="2" t="s">
+      <c r="E51" s="21" t="s">
         <v>134</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>135</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -3261,13 +3249,13 @@
     </row>
     <row r="52" ht="33.75" customHeight="1">
       <c r="A52" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>8</v>
@@ -3297,19 +3285,19 @@
     </row>
     <row r="53" ht="225.75" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="E53" s="21" t="s">
         <v>141</v>
-      </c>
-      <c r="E53" s="21" t="s">
-        <v>142</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -3335,19 +3323,19 @@
     </row>
     <row r="54" ht="103.5" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="E54" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -3373,13 +3361,13 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>8</v>
@@ -3409,10 +3397,10 @@
     </row>
     <row r="56" ht="51.0" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>7</v>
@@ -3445,13 +3433,13 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="C57" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>8</v>
@@ -3481,13 +3469,13 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>8</v>
@@ -3517,13 +3505,13 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>8</v>
@@ -3553,16 +3541,16 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="3"/>
@@ -3589,10 +3577,10 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C61" s="25" t="s">
         <v>7</v>
@@ -3625,13 +3613,13 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B62" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D62" s="28"/>
       <c r="E62" s="28"/>
@@ -3660,10 +3648,10 @@
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="27"/>
       <c r="B63" s="30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C63" s="29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D63" s="28"/>
       <c r="E63" s="28"/>
